--- a/InputData/elec/TCAMRB/Trans Cap Across Modeled Region Border.xlsx
+++ b/InputData/elec/TCAMRB/Trans Cap Across Modeled Region Border.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariana Bulos\Dropbox\InputData\elec\TCAMRB\MEX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="23955" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Calculations" sheetId="2" r:id="rId2"/>
+    <sheet name="Map" sheetId="5" r:id="rId2"/>
     <sheet name="TCAMRB" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>TCAMRB Transmission Capacity Across Modeled Region Border</t>
   </si>
@@ -24,64 +29,82 @@
     <t>Sources:</t>
   </si>
   <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Southern California Edison</t>
-  </si>
-  <si>
     <t>MW</t>
   </si>
   <si>
-    <t>El Paso Electric Co</t>
-  </si>
-  <si>
-    <t>American Electric Power Texas</t>
-  </si>
-  <si>
-    <t>Sharyland Utilities LP</t>
-  </si>
-  <si>
-    <t>Utility / Area</t>
-  </si>
-  <si>
-    <t>Laredo, TX</t>
-  </si>
-  <si>
-    <t>Mexico-U.S. Interconnections</t>
-  </si>
-  <si>
-    <t>Transmission &amp; Distribution World</t>
-  </si>
-  <si>
-    <t>TransAmerica Interconnections</t>
-  </si>
-  <si>
-    <t>http://tdworld.com/overhead-transmission/transamerica-interconnections</t>
-  </si>
-  <si>
-    <t>Under "Existing U.S.-Mexico Interconnections" header</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Transmission Capacity Across Modeled Region Border</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>We lack data on Mexico interconnections to Guatemala and Belize, so we assume all</t>
-  </si>
-  <si>
-    <t>significant transmission capacity to/from other countries from Mexico is to/from the U.S.</t>
+    <t>Interconexiones Transfronterizas 2016</t>
+  </si>
+  <si>
+    <t>PRODESEN 2017-2031</t>
+  </si>
+  <si>
+    <t>http://base.energia.gob.mx/prodesen/PRODESEN2017/PRODESEN-2017-2031.pdf</t>
+  </si>
+  <si>
+    <t>Map 2.7.1, p. 50</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility/Area </t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Ribereña-Ascarate</t>
+  </si>
+  <si>
+    <t>Tijuana-Miguel/La Rosita-Imperial Valley</t>
+  </si>
+  <si>
+    <t>6&amp;7</t>
+  </si>
+  <si>
+    <t>Piedras Negras-Eagle Pass</t>
+  </si>
+  <si>
+    <t>Nuevo Laredo-Laredo</t>
+  </si>
+  <si>
+    <t>Cumbres F. -Energía Buenavista</t>
+  </si>
+  <si>
+    <t>Cumbres F. -Railroad</t>
+  </si>
+  <si>
+    <t>ANAPRA-Diablo*</t>
+  </si>
+  <si>
+    <t>Ojinaga-Presidio*</t>
+  </si>
+  <si>
+    <t>Matamoros-Brownsville*</t>
+  </si>
+  <si>
+    <t>Matamoros-Military*</t>
+  </si>
+  <si>
+    <t>Xul Ha-WEST</t>
+  </si>
+  <si>
+    <t>Belice &amp; Guatemala</t>
+  </si>
+  <si>
+    <t>Tapachula-Los Brillantes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,7 +137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,18 +154,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,12 +177,81 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028B3423-0807-4556-B6E7-C50C2F6B4665}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3076575" y="0"/>
+          <a:ext cx="7124700" cy="5553075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -200,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,9 +326,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,6 +378,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,11 +571,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="70.28515625" customWidth="1"/>
@@ -464,48 +593,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
-        <v>2011</v>
+      <c r="B5" s="3">
+        <v>2016</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
+      <c r="B11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -515,80 +630,212 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6">
+        <v>540</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>300</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
+      <c r="B13" s="7"/>
+      <c r="C13">
+        <f>SUM(C3:C12)</f>
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5">
-        <f>SUM(B3:B7)</f>
-        <v>1286</v>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19">
+        <f>SUM(C17:C18)</f>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A19:B19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -599,22 +846,24 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6">
-        <f>Calculations!B8</f>
-        <v>1286</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <f>Map!C13+Map!C19</f>
+        <v>2523</v>
       </c>
     </row>
   </sheetData>
